--- a/◆At_Coder メモ帳◆.xlsx
+++ b/◆At_Coder メモ帳◆.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>初期化</t>
     <rPh sb="0" eb="3">
@@ -132,6 +132,63 @@
   </si>
   <si>
     <t xml:space="preserve">      nPos++;</t>
+  </si>
+  <si>
+    <t>ABC114_C_755.cpp</t>
+  </si>
+  <si>
+    <t>int fnDgt753_Count(int nMaxNum)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  vector&lt;char&gt; vcNum(10, '0');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  int nDgt753Cnt = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    vcNum[vcNum.size() - 1]++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for (int i = vcNum.size() - 1; i &gt;= 1; i--)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      if (vcNum[i] &gt; '3')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      {  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        vcNum[i - 1]++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        vcNum[i] = '1';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        break;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (!fnDgt753_Check(vcNum)) continue;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (fnConvInt(vcNum) &gt; nMaxNum) break;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    nDgt753Cnt++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return nDgt753Cnt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  while (fnConvInt(vcNum) &lt;= nMaxNum) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (fnDgt753_Check(vcNum)) nDgt753Cnt++;</t>
   </si>
 </sst>
 </file>
@@ -181,7 +238,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +266,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF003399"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +370,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -368,6 +431,30 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -376,11 +463,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FF66FFFF"/>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FFCCFFFF"/>
       <color rgb="FF003399"/>
       <color rgb="FF00FFFF"/>
-      <color rgb="FFFFFF00"/>
       <color rgb="FFFFFF99"/>
-      <color rgb="FFFFCCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -657,9 +746,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE29"/>
+  <dimension ref="A1:BE60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1325,7 +1414,7 @@
       <c r="BB16" s="8"/>
       <c r="BC16" s="9"/>
     </row>
-    <row r="17" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C17" s="7" t="s">
         <v>14</v>
       </c>
@@ -1383,7 +1472,7 @@
       <c r="BB17" s="8"/>
       <c r="BC17" s="9"/>
     </row>
-    <row r="18" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1437,7 +1526,7 @@
       <c r="BB18" s="8"/>
       <c r="BC18" s="9"/>
     </row>
-    <row r="19" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C19" s="7" t="s">
         <v>12</v>
       </c>
@@ -1495,7 +1584,7 @@
       <c r="BB19" s="8"/>
       <c r="BC19" s="9"/>
     </row>
-    <row r="20" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C20" s="7" t="s">
         <v>15</v>
       </c>
@@ -1553,7 +1642,7 @@
       <c r="BB20" s="14"/>
       <c r="BC20" s="15"/>
     </row>
-    <row r="21" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C21" s="7" t="s">
         <v>16</v>
       </c>
@@ -1611,7 +1700,7 @@
       <c r="BB21" s="14"/>
       <c r="BC21" s="15"/>
     </row>
-    <row r="22" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C22" s="7" t="s">
         <v>9</v>
       </c>
@@ -1669,7 +1758,7 @@
       <c r="BB22" s="8"/>
       <c r="BC22" s="9"/>
     </row>
-    <row r="23" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C23" s="7" t="s">
         <v>17</v>
       </c>
@@ -1725,7 +1814,7 @@
       <c r="BB23" s="8"/>
       <c r="BC23" s="9"/>
     </row>
-    <row r="24" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C24" s="7" t="s">
         <v>18</v>
       </c>
@@ -1783,7 +1872,7 @@
       <c r="BB24" s="8"/>
       <c r="BC24" s="9"/>
     </row>
-    <row r="25" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C25" s="7" t="s">
         <v>19</v>
       </c>
@@ -1841,7 +1930,7 @@
       <c r="BB25" s="8"/>
       <c r="BC25" s="9"/>
     </row>
-    <row r="26" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C26" s="7" t="s">
         <v>9</v>
       </c>
@@ -1897,7 +1986,7 @@
       <c r="BB26" s="8"/>
       <c r="BC26" s="9"/>
     </row>
-    <row r="27" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C27" s="7" t="s">
         <v>20</v>
       </c>
@@ -1955,7 +2044,7 @@
       <c r="BB27" s="8"/>
       <c r="BC27" s="9"/>
     </row>
-    <row r="28" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C28" s="7" t="s">
         <v>21</v>
       </c>
@@ -2013,7 +2102,7 @@
       <c r="BB28" s="8"/>
       <c r="BC28" s="9"/>
     </row>
-    <row r="29" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -2067,6 +2156,1553 @@
       <c r="BB29" s="11"/>
       <c r="BC29" s="12"/>
     </row>
+    <row r="32" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C34" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="6"/>
+      <c r="AD34" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="19"/>
+      <c r="AI34" s="19"/>
+      <c r="AJ34" s="19"/>
+      <c r="AK34" s="19"/>
+      <c r="AL34" s="19"/>
+      <c r="AM34" s="19"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="5"/>
+      <c r="AX34" s="5"/>
+      <c r="AY34" s="5"/>
+      <c r="AZ34" s="5"/>
+      <c r="BA34" s="5"/>
+      <c r="BB34" s="5"/>
+      <c r="BC34" s="6"/>
+    </row>
+    <row r="35" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="9"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
+      <c r="AM35" s="8"/>
+      <c r="AN35" s="8"/>
+      <c r="AO35" s="8"/>
+      <c r="AP35" s="8"/>
+      <c r="AQ35" s="8"/>
+      <c r="AR35" s="8"/>
+      <c r="AS35" s="8"/>
+      <c r="AT35" s="8"/>
+      <c r="AU35" s="8"/>
+      <c r="AV35" s="8"/>
+      <c r="AW35" s="8"/>
+      <c r="AX35" s="8"/>
+      <c r="AY35" s="8"/>
+      <c r="AZ35" s="8"/>
+      <c r="BA35" s="8"/>
+      <c r="BB35" s="8"/>
+      <c r="BC35" s="9"/>
+    </row>
+    <row r="36" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C36" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="22"/>
+      <c r="AD36" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE36" s="21"/>
+      <c r="AF36" s="21"/>
+      <c r="AG36" s="21"/>
+      <c r="AH36" s="21"/>
+      <c r="AI36" s="21"/>
+      <c r="AJ36" s="21"/>
+      <c r="AK36" s="21"/>
+      <c r="AL36" s="21"/>
+      <c r="AM36" s="21"/>
+      <c r="AN36" s="21"/>
+      <c r="AO36" s="21"/>
+      <c r="AP36" s="21"/>
+      <c r="AQ36" s="21"/>
+      <c r="AR36" s="21"/>
+      <c r="AS36" s="21"/>
+      <c r="AT36" s="21"/>
+      <c r="AU36" s="21"/>
+      <c r="AV36" s="21"/>
+      <c r="AW36" s="21"/>
+      <c r="AX36" s="21"/>
+      <c r="AY36" s="21"/>
+      <c r="AZ36" s="21"/>
+      <c r="BA36" s="21"/>
+      <c r="BB36" s="21"/>
+      <c r="BC36" s="22"/>
+    </row>
+    <row r="37" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C37" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="22"/>
+      <c r="AD37" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE37" s="21"/>
+      <c r="AF37" s="21"/>
+      <c r="AG37" s="21"/>
+      <c r="AH37" s="21"/>
+      <c r="AI37" s="21"/>
+      <c r="AJ37" s="21"/>
+      <c r="AK37" s="21"/>
+      <c r="AL37" s="21"/>
+      <c r="AM37" s="21"/>
+      <c r="AN37" s="21"/>
+      <c r="AO37" s="21"/>
+      <c r="AP37" s="21"/>
+      <c r="AQ37" s="21"/>
+      <c r="AR37" s="21"/>
+      <c r="AS37" s="21"/>
+      <c r="AT37" s="21"/>
+      <c r="AU37" s="21"/>
+      <c r="AV37" s="21"/>
+      <c r="AW37" s="21"/>
+      <c r="AX37" s="21"/>
+      <c r="AY37" s="21"/>
+      <c r="AZ37" s="21"/>
+      <c r="BA37" s="21"/>
+      <c r="BB37" s="21"/>
+      <c r="BC37" s="22"/>
+    </row>
+    <row r="38" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C38" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="22"/>
+      <c r="AD38" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE38" s="21"/>
+      <c r="AF38" s="21"/>
+      <c r="AG38" s="21"/>
+      <c r="AH38" s="21"/>
+      <c r="AI38" s="21"/>
+      <c r="AJ38" s="21"/>
+      <c r="AK38" s="21"/>
+      <c r="AL38" s="21"/>
+      <c r="AM38" s="21"/>
+      <c r="AN38" s="21"/>
+      <c r="AO38" s="21"/>
+      <c r="AP38" s="21"/>
+      <c r="AQ38" s="21"/>
+      <c r="AR38" s="21"/>
+      <c r="AS38" s="21"/>
+      <c r="AT38" s="21"/>
+      <c r="AU38" s="21"/>
+      <c r="AV38" s="21"/>
+      <c r="AW38" s="21"/>
+      <c r="AX38" s="21"/>
+      <c r="AY38" s="21"/>
+      <c r="AZ38" s="21"/>
+      <c r="BA38" s="21"/>
+      <c r="BB38" s="21"/>
+      <c r="BC38" s="22"/>
+    </row>
+    <row r="39" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C39" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="22"/>
+      <c r="AD39" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE39" s="21"/>
+      <c r="AF39" s="21"/>
+      <c r="AG39" s="21"/>
+      <c r="AH39" s="21"/>
+      <c r="AI39" s="21"/>
+      <c r="AJ39" s="21"/>
+      <c r="AK39" s="21"/>
+      <c r="AL39" s="21"/>
+      <c r="AM39" s="21"/>
+      <c r="AN39" s="21"/>
+      <c r="AO39" s="21"/>
+      <c r="AP39" s="21"/>
+      <c r="AQ39" s="21"/>
+      <c r="AR39" s="21"/>
+      <c r="AS39" s="21"/>
+      <c r="AT39" s="21"/>
+      <c r="AU39" s="21"/>
+      <c r="AV39" s="21"/>
+      <c r="AW39" s="21"/>
+      <c r="AX39" s="21"/>
+      <c r="AY39" s="21"/>
+      <c r="AZ39" s="21"/>
+      <c r="BA39" s="21"/>
+      <c r="BB39" s="21"/>
+      <c r="BC39" s="22"/>
+    </row>
+    <row r="40" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="22"/>
+      <c r="AD40" s="20"/>
+      <c r="AE40" s="21"/>
+      <c r="AF40" s="21"/>
+      <c r="AG40" s="21"/>
+      <c r="AH40" s="21"/>
+      <c r="AI40" s="21"/>
+      <c r="AJ40" s="21"/>
+      <c r="AK40" s="21"/>
+      <c r="AL40" s="21"/>
+      <c r="AM40" s="21"/>
+      <c r="AN40" s="21"/>
+      <c r="AO40" s="21"/>
+      <c r="AP40" s="21"/>
+      <c r="AQ40" s="21"/>
+      <c r="AR40" s="21"/>
+      <c r="AS40" s="21"/>
+      <c r="AT40" s="21"/>
+      <c r="AU40" s="21"/>
+      <c r="AV40" s="21"/>
+      <c r="AW40" s="21"/>
+      <c r="AX40" s="21"/>
+      <c r="AY40" s="21"/>
+      <c r="AZ40" s="21"/>
+      <c r="BA40" s="21"/>
+      <c r="BB40" s="21"/>
+      <c r="BC40" s="22"/>
+    </row>
+    <row r="41" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C41" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="14"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="15"/>
+      <c r="AD41" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="14"/>
+      <c r="AG41" s="14"/>
+      <c r="AH41" s="14"/>
+      <c r="AI41" s="14"/>
+      <c r="AJ41" s="14"/>
+      <c r="AK41" s="14"/>
+      <c r="AL41" s="14"/>
+      <c r="AM41" s="14"/>
+      <c r="AN41" s="14"/>
+      <c r="AO41" s="14"/>
+      <c r="AP41" s="14"/>
+      <c r="AQ41" s="14"/>
+      <c r="AR41" s="14"/>
+      <c r="AS41" s="14"/>
+      <c r="AT41" s="14"/>
+      <c r="AU41" s="14"/>
+      <c r="AV41" s="14"/>
+      <c r="AW41" s="14"/>
+      <c r="AX41" s="14"/>
+      <c r="AY41" s="14"/>
+      <c r="AZ41" s="14"/>
+      <c r="BA41" s="14"/>
+      <c r="BB41" s="14"/>
+      <c r="BC41" s="15"/>
+    </row>
+    <row r="42" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C42" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="21"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="22"/>
+      <c r="AD42" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE42" s="21"/>
+      <c r="AF42" s="21"/>
+      <c r="AG42" s="21"/>
+      <c r="AH42" s="21"/>
+      <c r="AI42" s="21"/>
+      <c r="AJ42" s="21"/>
+      <c r="AK42" s="21"/>
+      <c r="AL42" s="21"/>
+      <c r="AM42" s="21"/>
+      <c r="AN42" s="21"/>
+      <c r="AO42" s="21"/>
+      <c r="AP42" s="21"/>
+      <c r="AQ42" s="21"/>
+      <c r="AR42" s="21"/>
+      <c r="AS42" s="21"/>
+      <c r="AT42" s="21"/>
+      <c r="AU42" s="21"/>
+      <c r="AV42" s="21"/>
+      <c r="AW42" s="21"/>
+      <c r="AX42" s="21"/>
+      <c r="AY42" s="21"/>
+      <c r="AZ42" s="21"/>
+      <c r="BA42" s="21"/>
+      <c r="BB42" s="21"/>
+      <c r="BC42" s="22"/>
+    </row>
+    <row r="43" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C43" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="22"/>
+      <c r="AD43" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE43" s="21"/>
+      <c r="AF43" s="21"/>
+      <c r="AG43" s="21"/>
+      <c r="AH43" s="21"/>
+      <c r="AI43" s="21"/>
+      <c r="AJ43" s="21"/>
+      <c r="AK43" s="21"/>
+      <c r="AL43" s="21"/>
+      <c r="AM43" s="21"/>
+      <c r="AN43" s="21"/>
+      <c r="AO43" s="21"/>
+      <c r="AP43" s="21"/>
+      <c r="AQ43" s="21"/>
+      <c r="AR43" s="21"/>
+      <c r="AS43" s="21"/>
+      <c r="AT43" s="21"/>
+      <c r="AU43" s="21"/>
+      <c r="AV43" s="21"/>
+      <c r="AW43" s="21"/>
+      <c r="AX43" s="21"/>
+      <c r="AY43" s="21"/>
+      <c r="AZ43" s="21"/>
+      <c r="BA43" s="21"/>
+      <c r="BB43" s="21"/>
+      <c r="BC43" s="22"/>
+    </row>
+    <row r="44" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C44" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="14"/>
+      <c r="Z44" s="14"/>
+      <c r="AA44" s="14"/>
+      <c r="AB44" s="15"/>
+      <c r="AD44" s="20"/>
+      <c r="AE44" s="21"/>
+      <c r="AF44" s="21"/>
+      <c r="AG44" s="21"/>
+      <c r="AH44" s="21"/>
+      <c r="AI44" s="21"/>
+      <c r="AJ44" s="21"/>
+      <c r="AK44" s="21"/>
+      <c r="AL44" s="21"/>
+      <c r="AM44" s="21"/>
+      <c r="AN44" s="21"/>
+      <c r="AO44" s="21"/>
+      <c r="AP44" s="21"/>
+      <c r="AQ44" s="21"/>
+      <c r="AR44" s="21"/>
+      <c r="AS44" s="21"/>
+      <c r="AT44" s="21"/>
+      <c r="AU44" s="21"/>
+      <c r="AV44" s="21"/>
+      <c r="AW44" s="21"/>
+      <c r="AX44" s="21"/>
+      <c r="AY44" s="21"/>
+      <c r="AZ44" s="21"/>
+      <c r="BA44" s="21"/>
+      <c r="BB44" s="21"/>
+      <c r="BC44" s="22"/>
+    </row>
+    <row r="45" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C45" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="21"/>
+      <c r="AA45" s="21"/>
+      <c r="AB45" s="22"/>
+      <c r="AD45" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE45" s="21"/>
+      <c r="AF45" s="21"/>
+      <c r="AG45" s="21"/>
+      <c r="AH45" s="21"/>
+      <c r="AI45" s="21"/>
+      <c r="AJ45" s="21"/>
+      <c r="AK45" s="21"/>
+      <c r="AL45" s="21"/>
+      <c r="AM45" s="21"/>
+      <c r="AN45" s="21"/>
+      <c r="AO45" s="21"/>
+      <c r="AP45" s="21"/>
+      <c r="AQ45" s="21"/>
+      <c r="AR45" s="21"/>
+      <c r="AS45" s="21"/>
+      <c r="AT45" s="21"/>
+      <c r="AU45" s="21"/>
+      <c r="AV45" s="21"/>
+      <c r="AW45" s="21"/>
+      <c r="AX45" s="21"/>
+      <c r="AY45" s="21"/>
+      <c r="AZ45" s="21"/>
+      <c r="BA45" s="21"/>
+      <c r="BB45" s="21"/>
+      <c r="BC45" s="22"/>
+    </row>
+    <row r="46" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C46" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="21"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="21"/>
+      <c r="AA46" s="21"/>
+      <c r="AB46" s="22"/>
+      <c r="AD46" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE46" s="14"/>
+      <c r="AF46" s="14"/>
+      <c r="AG46" s="14"/>
+      <c r="AH46" s="14"/>
+      <c r="AI46" s="14"/>
+      <c r="AJ46" s="14"/>
+      <c r="AK46" s="14"/>
+      <c r="AL46" s="14"/>
+      <c r="AM46" s="14"/>
+      <c r="AN46" s="14"/>
+      <c r="AO46" s="14"/>
+      <c r="AP46" s="14"/>
+      <c r="AQ46" s="14"/>
+      <c r="AR46" s="14"/>
+      <c r="AS46" s="14"/>
+      <c r="AT46" s="14"/>
+      <c r="AU46" s="14"/>
+      <c r="AV46" s="14"/>
+      <c r="AW46" s="14"/>
+      <c r="AX46" s="14"/>
+      <c r="AY46" s="14"/>
+      <c r="AZ46" s="14"/>
+      <c r="BA46" s="14"/>
+      <c r="BB46" s="14"/>
+      <c r="BC46" s="15"/>
+    </row>
+    <row r="47" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C47" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="21"/>
+      <c r="AA47" s="21"/>
+      <c r="AB47" s="22"/>
+      <c r="AD47" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE47" s="21"/>
+      <c r="AF47" s="21"/>
+      <c r="AG47" s="21"/>
+      <c r="AH47" s="21"/>
+      <c r="AI47" s="21"/>
+      <c r="AJ47" s="21"/>
+      <c r="AK47" s="21"/>
+      <c r="AL47" s="21"/>
+      <c r="AM47" s="21"/>
+      <c r="AN47" s="21"/>
+      <c r="AO47" s="21"/>
+      <c r="AP47" s="21"/>
+      <c r="AQ47" s="21"/>
+      <c r="AR47" s="21"/>
+      <c r="AS47" s="21"/>
+      <c r="AT47" s="21"/>
+      <c r="AU47" s="21"/>
+      <c r="AV47" s="21"/>
+      <c r="AW47" s="21"/>
+      <c r="AX47" s="21"/>
+      <c r="AY47" s="21"/>
+      <c r="AZ47" s="21"/>
+      <c r="BA47" s="21"/>
+      <c r="BB47" s="21"/>
+      <c r="BC47" s="22"/>
+    </row>
+    <row r="48" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C48" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="21"/>
+      <c r="Y48" s="21"/>
+      <c r="Z48" s="21"/>
+      <c r="AA48" s="21"/>
+      <c r="AB48" s="22"/>
+      <c r="AD48" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE48" s="21"/>
+      <c r="AF48" s="21"/>
+      <c r="AG48" s="21"/>
+      <c r="AH48" s="21"/>
+      <c r="AI48" s="21"/>
+      <c r="AJ48" s="21"/>
+      <c r="AK48" s="21"/>
+      <c r="AL48" s="21"/>
+      <c r="AM48" s="21"/>
+      <c r="AN48" s="21"/>
+      <c r="AO48" s="21"/>
+      <c r="AP48" s="21"/>
+      <c r="AQ48" s="21"/>
+      <c r="AR48" s="21"/>
+      <c r="AS48" s="21"/>
+      <c r="AT48" s="21"/>
+      <c r="AU48" s="21"/>
+      <c r="AV48" s="21"/>
+      <c r="AW48" s="21"/>
+      <c r="AX48" s="21"/>
+      <c r="AY48" s="21"/>
+      <c r="AZ48" s="21"/>
+      <c r="BA48" s="21"/>
+      <c r="BB48" s="21"/>
+      <c r="BC48" s="22"/>
+    </row>
+    <row r="49" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C49" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="21"/>
+      <c r="Z49" s="21"/>
+      <c r="AA49" s="21"/>
+      <c r="AB49" s="22"/>
+      <c r="AD49" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE49" s="21"/>
+      <c r="AF49" s="21"/>
+      <c r="AG49" s="21"/>
+      <c r="AH49" s="21"/>
+      <c r="AI49" s="21"/>
+      <c r="AJ49" s="21"/>
+      <c r="AK49" s="21"/>
+      <c r="AL49" s="21"/>
+      <c r="AM49" s="21"/>
+      <c r="AN49" s="21"/>
+      <c r="AO49" s="21"/>
+      <c r="AP49" s="21"/>
+      <c r="AQ49" s="21"/>
+      <c r="AR49" s="21"/>
+      <c r="AS49" s="21"/>
+      <c r="AT49" s="21"/>
+      <c r="AU49" s="21"/>
+      <c r="AV49" s="21"/>
+      <c r="AW49" s="21"/>
+      <c r="AX49" s="21"/>
+      <c r="AY49" s="21"/>
+      <c r="AZ49" s="21"/>
+      <c r="BA49" s="21"/>
+      <c r="BB49" s="21"/>
+      <c r="BC49" s="22"/>
+    </row>
+    <row r="50" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C50" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="21"/>
+      <c r="AA50" s="21"/>
+      <c r="AB50" s="22"/>
+      <c r="AD50" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE50" s="21"/>
+      <c r="AF50" s="21"/>
+      <c r="AG50" s="21"/>
+      <c r="AH50" s="21"/>
+      <c r="AI50" s="21"/>
+      <c r="AJ50" s="21"/>
+      <c r="AK50" s="21"/>
+      <c r="AL50" s="21"/>
+      <c r="AM50" s="21"/>
+      <c r="AN50" s="21"/>
+      <c r="AO50" s="21"/>
+      <c r="AP50" s="21"/>
+      <c r="AQ50" s="21"/>
+      <c r="AR50" s="21"/>
+      <c r="AS50" s="21"/>
+      <c r="AT50" s="21"/>
+      <c r="AU50" s="21"/>
+      <c r="AV50" s="21"/>
+      <c r="AW50" s="21"/>
+      <c r="AX50" s="21"/>
+      <c r="AY50" s="21"/>
+      <c r="AZ50" s="21"/>
+      <c r="BA50" s="21"/>
+      <c r="BB50" s="21"/>
+      <c r="BC50" s="22"/>
+    </row>
+    <row r="51" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C51" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="21"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="16"/>
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="17"/>
+      <c r="AD51" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE51" s="21"/>
+      <c r="AF51" s="21"/>
+      <c r="AG51" s="21"/>
+      <c r="AH51" s="21"/>
+      <c r="AI51" s="21"/>
+      <c r="AJ51" s="21"/>
+      <c r="AK51" s="21"/>
+      <c r="AL51" s="21"/>
+      <c r="AM51" s="21"/>
+      <c r="AN51" s="21"/>
+      <c r="AO51" s="21"/>
+      <c r="AP51" s="21"/>
+      <c r="AQ51" s="21"/>
+      <c r="AR51" s="21"/>
+      <c r="AS51" s="21"/>
+      <c r="AT51" s="21"/>
+      <c r="AU51" s="21"/>
+      <c r="AV51" s="21"/>
+      <c r="AW51" s="21"/>
+      <c r="AX51" s="21"/>
+      <c r="AY51" s="21"/>
+      <c r="AZ51" s="21"/>
+      <c r="BA51" s="21"/>
+      <c r="BB51" s="21"/>
+      <c r="BC51" s="22"/>
+    </row>
+    <row r="52" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C52" s="20"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="21"/>
+      <c r="X52" s="21"/>
+      <c r="Y52" s="21"/>
+      <c r="Z52" s="21"/>
+      <c r="AA52" s="21"/>
+      <c r="AB52" s="22"/>
+      <c r="AD52" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE52" s="21"/>
+      <c r="AF52" s="21"/>
+      <c r="AG52" s="21"/>
+      <c r="AH52" s="21"/>
+      <c r="AI52" s="21"/>
+      <c r="AJ52" s="21"/>
+      <c r="AK52" s="21"/>
+      <c r="AL52" s="21"/>
+      <c r="AM52" s="21"/>
+      <c r="AN52" s="21"/>
+      <c r="AO52" s="21"/>
+      <c r="AP52" s="21"/>
+      <c r="AQ52" s="21"/>
+      <c r="AR52" s="21"/>
+      <c r="AS52" s="21"/>
+      <c r="AT52" s="21"/>
+      <c r="AU52" s="21"/>
+      <c r="AV52" s="21"/>
+      <c r="AW52" s="21"/>
+      <c r="AX52" s="21"/>
+      <c r="AY52" s="21"/>
+      <c r="AZ52" s="21"/>
+      <c r="BA52" s="21"/>
+      <c r="BB52" s="21"/>
+      <c r="BC52" s="22"/>
+    </row>
+    <row r="53" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C53" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="26"/>
+      <c r="S53" s="26"/>
+      <c r="T53" s="26"/>
+      <c r="U53" s="26"/>
+      <c r="V53" s="26"/>
+      <c r="W53" s="26"/>
+      <c r="X53" s="26"/>
+      <c r="Y53" s="26"/>
+      <c r="Z53" s="26"/>
+      <c r="AA53" s="26"/>
+      <c r="AB53" s="27"/>
+      <c r="AD53" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE53" s="21"/>
+      <c r="AF53" s="16"/>
+      <c r="AG53" s="16"/>
+      <c r="AH53" s="16"/>
+      <c r="AI53" s="16"/>
+      <c r="AJ53" s="16"/>
+      <c r="AK53" s="16"/>
+      <c r="AL53" s="16"/>
+      <c r="AM53" s="16"/>
+      <c r="AN53" s="16"/>
+      <c r="AO53" s="16"/>
+      <c r="AP53" s="16"/>
+      <c r="AQ53" s="16"/>
+      <c r="AR53" s="16"/>
+      <c r="AS53" s="16"/>
+      <c r="AT53" s="16"/>
+      <c r="AU53" s="16"/>
+      <c r="AV53" s="16"/>
+      <c r="AW53" s="16"/>
+      <c r="AX53" s="16"/>
+      <c r="AY53" s="16"/>
+      <c r="AZ53" s="16"/>
+      <c r="BA53" s="16"/>
+      <c r="BB53" s="16"/>
+      <c r="BC53" s="17"/>
+    </row>
+    <row r="54" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C54" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="16"/>
+      <c r="W54" s="16"/>
+      <c r="X54" s="16"/>
+      <c r="Y54" s="16"/>
+      <c r="Z54" s="16"/>
+      <c r="AA54" s="16"/>
+      <c r="AB54" s="17"/>
+      <c r="AD54" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE54" s="21"/>
+      <c r="AF54" s="21"/>
+      <c r="AG54" s="21"/>
+      <c r="AH54" s="21"/>
+      <c r="AI54" s="21"/>
+      <c r="AJ54" s="21"/>
+      <c r="AK54" s="21"/>
+      <c r="AL54" s="21"/>
+      <c r="AM54" s="21"/>
+      <c r="AN54" s="21"/>
+      <c r="AO54" s="21"/>
+      <c r="AP54" s="21"/>
+      <c r="AQ54" s="21"/>
+      <c r="AR54" s="21"/>
+      <c r="AS54" s="21"/>
+      <c r="AT54" s="21"/>
+      <c r="AU54" s="21"/>
+      <c r="AV54" s="21"/>
+      <c r="AW54" s="21"/>
+      <c r="AX54" s="21"/>
+      <c r="AY54" s="21"/>
+      <c r="AZ54" s="21"/>
+      <c r="BA54" s="21"/>
+      <c r="BB54" s="21"/>
+      <c r="BC54" s="22"/>
+    </row>
+    <row r="55" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C55" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="21"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="21"/>
+      <c r="AA55" s="21"/>
+      <c r="AB55" s="22"/>
+      <c r="AD55" s="20"/>
+      <c r="AE55" s="21"/>
+      <c r="AF55" s="21"/>
+      <c r="AG55" s="21"/>
+      <c r="AH55" s="21"/>
+      <c r="AI55" s="21"/>
+      <c r="AJ55" s="21"/>
+      <c r="AK55" s="21"/>
+      <c r="AL55" s="21"/>
+      <c r="AM55" s="21"/>
+      <c r="AN55" s="21"/>
+      <c r="AO55" s="21"/>
+      <c r="AP55" s="21"/>
+      <c r="AQ55" s="21"/>
+      <c r="AR55" s="21"/>
+      <c r="AS55" s="21"/>
+      <c r="AT55" s="21"/>
+      <c r="AU55" s="21"/>
+      <c r="AV55" s="21"/>
+      <c r="AW55" s="21"/>
+      <c r="AX55" s="21"/>
+      <c r="AY55" s="21"/>
+      <c r="AZ55" s="21"/>
+      <c r="BA55" s="21"/>
+      <c r="BB55" s="21"/>
+      <c r="BC55" s="22"/>
+    </row>
+    <row r="56" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C56" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="21"/>
+      <c r="X56" s="21"/>
+      <c r="Y56" s="21"/>
+      <c r="Z56" s="21"/>
+      <c r="AA56" s="21"/>
+      <c r="AB56" s="22"/>
+      <c r="AD56" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE56" s="21"/>
+      <c r="AF56" s="21"/>
+      <c r="AG56" s="21"/>
+      <c r="AH56" s="21"/>
+      <c r="AI56" s="21"/>
+      <c r="AJ56" s="21"/>
+      <c r="AK56" s="21"/>
+      <c r="AL56" s="21"/>
+      <c r="AM56" s="21"/>
+      <c r="AN56" s="21"/>
+      <c r="AO56" s="21"/>
+      <c r="AP56" s="21"/>
+      <c r="AQ56" s="21"/>
+      <c r="AR56" s="21"/>
+      <c r="AS56" s="21"/>
+      <c r="AT56" s="21"/>
+      <c r="AU56" s="21"/>
+      <c r="AV56" s="21"/>
+      <c r="AW56" s="21"/>
+      <c r="AX56" s="21"/>
+      <c r="AY56" s="21"/>
+      <c r="AZ56" s="21"/>
+      <c r="BA56" s="21"/>
+      <c r="BB56" s="21"/>
+      <c r="BC56" s="22"/>
+    </row>
+    <row r="57" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="9"/>
+      <c r="AD57" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE57" s="21"/>
+      <c r="AF57" s="21"/>
+      <c r="AG57" s="21"/>
+      <c r="AH57" s="21"/>
+      <c r="AI57" s="21"/>
+      <c r="AJ57" s="21"/>
+      <c r="AK57" s="21"/>
+      <c r="AL57" s="21"/>
+      <c r="AM57" s="21"/>
+      <c r="AN57" s="21"/>
+      <c r="AO57" s="21"/>
+      <c r="AP57" s="21"/>
+      <c r="AQ57" s="21"/>
+      <c r="AR57" s="21"/>
+      <c r="AS57" s="21"/>
+      <c r="AT57" s="21"/>
+      <c r="AU57" s="21"/>
+      <c r="AV57" s="21"/>
+      <c r="AW57" s="21"/>
+      <c r="AX57" s="21"/>
+      <c r="AY57" s="21"/>
+      <c r="AZ57" s="21"/>
+      <c r="BA57" s="21"/>
+      <c r="BB57" s="21"/>
+      <c r="BC57" s="22"/>
+    </row>
+    <row r="58" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C58" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="9"/>
+      <c r="AD58" s="20"/>
+      <c r="AE58" s="21"/>
+      <c r="AF58" s="21"/>
+      <c r="AG58" s="21"/>
+      <c r="AH58" s="21"/>
+      <c r="AI58" s="21"/>
+      <c r="AJ58" s="21"/>
+      <c r="AK58" s="21"/>
+      <c r="AL58" s="21"/>
+      <c r="AM58" s="21"/>
+      <c r="AN58" s="21"/>
+      <c r="AO58" s="21"/>
+      <c r="AP58" s="21"/>
+      <c r="AQ58" s="21"/>
+      <c r="AR58" s="21"/>
+      <c r="AS58" s="21"/>
+      <c r="AT58" s="21"/>
+      <c r="AU58" s="21"/>
+      <c r="AV58" s="21"/>
+      <c r="AW58" s="21"/>
+      <c r="AX58" s="21"/>
+      <c r="AY58" s="21"/>
+      <c r="AZ58" s="21"/>
+      <c r="BA58" s="21"/>
+      <c r="BB58" s="21"/>
+      <c r="BC58" s="22"/>
+    </row>
+    <row r="59" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C59" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="9"/>
+      <c r="AD59" s="20"/>
+      <c r="AE59" s="21"/>
+      <c r="AF59" s="21"/>
+      <c r="AG59" s="21"/>
+      <c r="AH59" s="21"/>
+      <c r="AI59" s="21"/>
+      <c r="AJ59" s="21"/>
+      <c r="AK59" s="21"/>
+      <c r="AL59" s="21"/>
+      <c r="AM59" s="21"/>
+      <c r="AN59" s="21"/>
+      <c r="AO59" s="21"/>
+      <c r="AP59" s="21"/>
+      <c r="AQ59" s="21"/>
+      <c r="AR59" s="21"/>
+      <c r="AS59" s="21"/>
+      <c r="AT59" s="21"/>
+      <c r="AU59" s="21"/>
+      <c r="AV59" s="21"/>
+      <c r="AW59" s="21"/>
+      <c r="AX59" s="21"/>
+      <c r="AY59" s="21"/>
+      <c r="AZ59" s="21"/>
+      <c r="BA59" s="21"/>
+      <c r="BB59" s="21"/>
+      <c r="BC59" s="22"/>
+    </row>
+    <row r="60" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="C60" s="10"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="11"/>
+      <c r="AA60" s="11"/>
+      <c r="AB60" s="12"/>
+      <c r="AD60" s="23"/>
+      <c r="AE60" s="24"/>
+      <c r="AF60" s="24"/>
+      <c r="AG60" s="24"/>
+      <c r="AH60" s="24"/>
+      <c r="AI60" s="24"/>
+      <c r="AJ60" s="24"/>
+      <c r="AK60" s="24"/>
+      <c r="AL60" s="24"/>
+      <c r="AM60" s="24"/>
+      <c r="AN60" s="24"/>
+      <c r="AO60" s="24"/>
+      <c r="AP60" s="24"/>
+      <c r="AQ60" s="24"/>
+      <c r="AR60" s="24"/>
+      <c r="AS60" s="24"/>
+      <c r="AT60" s="24"/>
+      <c r="AU60" s="24"/>
+      <c r="AV60" s="24"/>
+      <c r="AW60" s="24"/>
+      <c r="AX60" s="24"/>
+      <c r="AY60" s="24"/>
+      <c r="AZ60" s="24"/>
+      <c r="BA60" s="24"/>
+      <c r="BB60" s="24"/>
+      <c r="BC60" s="25"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/◆At_Coder メモ帳◆.xlsx
+++ b/◆At_Coder メモ帳◆.xlsx
@@ -746,9 +746,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:BE60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -3705,7 +3708,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.59055118110236227" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" scale="70" fitToWidth="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/◆At_Coder メモ帳◆.xlsx
+++ b/◆At_Coder メモ帳◆.xlsx
@@ -746,9 +746,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:BE60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
@@ -3708,7 +3705,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.59055118110236227" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.27559055118110237"/>
-  <pageSetup paperSize="9" scale="70" fitToWidth="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.39370078740157483" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" scale="72" fitToWidth="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>